--- a/PAS.API/PAS.API/Resources/CodeList_Template.xlsx
+++ b/PAS.API/PAS.API/Resources/CodeList_Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sample-projects\PAS\PAS.API\PAS.API\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EEDEA4-3DBC-439D-8179-C36AF52CE9D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413CFDF5-E029-4F5D-B385-79CB25E0BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{3A1D3368-3B77-4783-9E05-73C55B52E364}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A1D3368-3B77-4783-9E05-73C55B52E364}"/>
   </bookViews>
   <sheets>
     <sheet name="Code_Details" sheetId="1" r:id="rId1"/>
@@ -458,7 +458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA76813-A555-4F68-8168-19DA9F278616}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
@@ -499,12 +499,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C7E2AA-F590-4814-8B99-57DA18C39C28}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>

--- a/PAS.API/PAS.API/Resources/CodeList_Template.xlsx
+++ b/PAS.API/PAS.API/Resources/CodeList_Template.xlsx
@@ -1,22 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sample-projects\PAS\PAS.API\PAS.API\Resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\projects\PAS\PAS.API\PAS.API\Resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{413CFDF5-E029-4F5D-B385-79CB25E0BC54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{3A1D3368-3B77-4783-9E05-73C55B52E364}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10416" tabRatio="999" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Code_Details" sheetId="1" r:id="rId1"/>
-    <sheet name="Endowment" sheetId="2" r:id="rId2"/>
+    <sheet name="ULIPPlans" sheetId="145" r:id="rId2"/>
+    <sheet name="HealthPlans" sheetId="144" r:id="rId3"/>
+    <sheet name="TermPlans" sheetId="143" r:id="rId4"/>
+    <sheet name="SinglePremiumPlans" sheetId="142" r:id="rId5"/>
+    <sheet name="PensionPlans" sheetId="141" r:id="rId6"/>
+    <sheet name="WholeLifePlans" sheetId="140" r:id="rId7"/>
+    <sheet name="MoneyBackPlans" sheetId="138" r:id="rId8"/>
+    <sheet name="ChildrenPlans" sheetId="139" r:id="rId9"/>
+    <sheet name="EndowmentPlans" sheetId="2" r:id="rId10"/>
+    <sheet name="SavingsPlans" sheetId="137" r:id="rId11"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +36,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>Reference</t>
   </si>
@@ -47,71 +54,98 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Endowment</t>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>SubCode</t>
+  </si>
+  <si>
+    <t>EndowmentPlans</t>
+  </si>
+  <si>
+    <t>SavingsPlans</t>
+  </si>
+  <si>
+    <t>ChildrenPlans</t>
+  </si>
+  <si>
+    <t>MoneyBackPlans</t>
+  </si>
+  <si>
+    <t>WholeLifePlans</t>
+  </si>
+  <si>
+    <t>PensionPlans</t>
+  </si>
+  <si>
+    <t>SinglePremiumPlans</t>
+  </si>
+  <si>
+    <t>TermPlans</t>
+  </si>
+  <si>
+    <t>HealthPlans</t>
+  </si>
+  <si>
+    <t>ULIPPlans</t>
   </si>
   <si>
     <t>Endowment Plans</t>
   </si>
   <si>
-    <t>Code</t>
-  </si>
-  <si>
-    <t>SubCode</t>
+    <t>Savings Plans</t>
+  </si>
+  <si>
+    <t>Children Plans</t>
+  </si>
+  <si>
+    <t>Money Back Plans</t>
+  </si>
+  <si>
+    <t>Whole Life Plans</t>
+  </si>
+  <si>
+    <t>Pension Plans</t>
+  </si>
+  <si>
+    <t>Single Premium Plans</t>
+  </si>
+  <si>
+    <t>Term Plans</t>
+  </si>
+  <si>
+    <t>Health Plans</t>
+  </si>
+  <si>
+    <t>ULIP Plans</t>
   </si>
   <si>
     <t>New Endowment</t>
   </si>
   <si>
-    <t>NWEND</t>
-  </si>
-  <si>
-    <t>NWJAND</t>
-  </si>
-  <si>
     <t>New Jeevan Anand</t>
   </si>
   <si>
-    <t>JLKSH</t>
-  </si>
-  <si>
     <t>Jeevan Lakshya</t>
   </si>
   <si>
-    <t>JLBH</t>
-  </si>
-  <si>
     <t>Jeevan Labh</t>
   </si>
   <si>
-    <t>ADRSTB</t>
-  </si>
-  <si>
-    <t>Aadhar Stambh</t>
-  </si>
-  <si>
-    <t>ADRSHL</t>
-  </si>
-  <si>
-    <t>Aadhar Shila</t>
-  </si>
-  <si>
-    <t>BMJTI</t>
+    <t>Adhar Shila</t>
   </si>
   <si>
     <t>Bima Jyoti</t>
   </si>
   <si>
-    <t>MCRBCT</t>
-  </si>
-  <si>
     <t>Micro Bachat</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +153,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,17 +202,151 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -176,7 +376,7 @@
         <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
         <a:srgbClr val="ED7D31"/>
@@ -188,7 +388,7 @@
         <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
         <a:srgbClr val="70AD47"/>
@@ -235,23 +435,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -287,23 +470,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,17 +621,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EA76813-A555-4F68-8168-19DA9F278616}">
-  <dimension ref="A1:C2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C84"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.21875" customWidth="1"/>
+    <col min="2" max="3" width="32.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -481,12 +648,272 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+    </row>
+    <row r="84" spans="1:3" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="A84" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.44140625" style="4" customWidth="1"/>
+    <col min="2" max="2" width="23.77734375" style="4" customWidth="1"/>
+    <col min="3" max="16384" width="8.77734375" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>914</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>915</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>933</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>936</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>944</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>860</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>951</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="duplicateValues" dxfId="9" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A11">
+    <cfRule type="duplicateValues" dxfId="8" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A24">
+    <cfRule type="duplicateValues" dxfId="7" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A29">
+    <cfRule type="duplicateValues" dxfId="6" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A26">
+    <cfRule type="duplicateValues" dxfId="5" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B31">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:A31 A21 A2:A16 A18">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A20">
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A22">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A12:A15 A3 A9 A6:A7">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
@@ -496,120 +923,519 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82C7E2AA-F590-4814-8B99-57DA18C39C28}">
-  <dimension ref="A1:C9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="8.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.109375" bestFit="1" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B1" t="s">
+      <c r="A1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2">
-        <v>914</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4">
-        <v>933</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7">
-        <v>944</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9">
-        <v>951</v>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<Klassify>
+  <SNO>1</SNO>
+  <KDate>2021-05-26 11:07:42</KDate>
+  <Classification>INTERNAL</Classification>
+  <HostName>XCLP-TU1-2448</HostName>
+  <Domain_User>XIPL/2448</Domain_User>
+  <IPAdd>192.168.152.168</IPAdd>
+  <FilePath>C:\Nitin\CodeLists\CodeList.xlsx</FilePath>
+  <KID>B068E63B1C53637576240628107927</KID>
+  <UniqueName/>
+  <Suggested/>
+  <Justification/>
+</Klassify>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101005C9836DD812E644B9525AE4B542EDD7B" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="80fb7b7e58e3da73591dac13aeb3f026">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="cf99c9d9-ffb9-4dab-9f70-4e6049fa48db" xmlns:ns3="848d2920-1bbf-49d1-a844-e5d548eeb37b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b53aee49600fb8dafb943b3f55e25f83" ns2:_="" ns3:_="">
+    <xsd:import namespace="cf99c9d9-ffb9-4dab-9f70-4e6049fa48db"/>
+    <xsd:import namespace="848d2920-1bbf-49d1-a844-e5d548eeb37b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="cf99c9d9-ffb9-4dab-9f70-4e6049fa48db" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="11" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="12" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="14" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="15" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceLocation" ma:index="17" nillable="true" ma:displayName="Location" ma:internalName="MediaServiceLocation" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="20" nillable="true" ma:displayName="Length (seconds)" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="848d2920-1bbf-49d1-a844-e5d548eeb37b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="18" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="19" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="848d2920-1bbf-49d1-a844-e5d548eeb37b">
+      <UserInfo>
+        <DisplayName>XPAS Members</DisplayName>
+        <AccountId>7</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E0CEB76-4BFF-4B47-9C0C-36D03D8D4832}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1291DA2D-81C8-4A0F-A26A-16A64D144B2A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AE7E16F5-7097-4813-B2FE-CADAE8EF92EC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="cf99c9d9-ffb9-4dab-9f70-4e6049fa48db"/>
+    <ds:schemaRef ds:uri="848d2920-1bbf-49d1-a844-e5d548eeb37b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AF121780-90E8-4D64-A5DD-81847660AAF5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="848d2920-1bbf-49d1-a844-e5d548eeb37b"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="cf99c9d9-ffb9-4dab-9f70-4e6049fa48db"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>